--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1017523.524376014</v>
+        <v>-1020091.72465538</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10120672.17103262</v>
+        <v>10120672.17103263</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1370,7 @@
         <v>355.8127254646765</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3517755722035</v>
       </c>
       <c r="D11" t="n">
         <v>327.7619254218789</v>
@@ -1379,7 +1379,7 @@
         <v>355.0092538734577</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9549295429073</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>384.0006094546494</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>34.90755756011407</v>
+        <v>224.0740557600979</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8311422713308</v>
       </c>
       <c r="W11" t="n">
         <v>322.3198525186089</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8099844796649</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3168224572495</v>
+        <v>253.7323204363042</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>152.9108639831332</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3257048998237</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>121.6943568194083</v>
@@ -1543,7 +1543,7 @@
         <v>139.1046920602241</v>
       </c>
       <c r="H13" t="n">
-        <v>27.79444494908617</v>
+        <v>117.8338987155167</v>
       </c>
       <c r="I13" t="n">
         <v>69.43130421103399</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01103647124323</v>
+        <v>62.01103647124322</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8479091326378</v>
       </c>
       <c r="T13" t="n">
         <v>192.6278330773651</v>
@@ -1585,7 +1585,7 @@
         <v>259.2907220068088</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>79.10187915404609</v>
       </c>
       <c r="W13" t="n">
         <v>259.6018821377869</v>
@@ -1594,7 +1594,7 @@
         <v>198.7885391902331</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6635371532907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8127254646764</v>
+        <v>355.8127254646765</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3517755722034</v>
+        <v>338.3517755722035</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0092538734576</v>
+        <v>355.0092538734577</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9549295429073</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0006094546493</v>
+        <v>384.0006094546494</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6866481885163</v>
+        <v>267.6866481885164</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65581357412182</v>
+        <v>14.65581357412185</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26664558937168</v>
+        <v>82.26664558937173</v>
       </c>
       <c r="T14" t="n">
-        <v>24.31770740979071</v>
+        <v>176.996853940816</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0740557600979</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8311422713308</v>
       </c>
       <c r="W14" t="n">
         <v>322.3198525186089</v>
@@ -1673,7 +1673,7 @@
         <v>342.8099844796649</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3168224572494</v>
+        <v>61.6874074377028</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9108639831331</v>
+        <v>152.9108639831332</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>90.69422106945635</v>
+        <v>121.6943568194083</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>18.06849186313936</v>
       </c>
       <c r="F16" t="n">
-        <v>118.4999318241271</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>139.1046920602241</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43130421103399</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01103647124319</v>
+        <v>62.01103647124323</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8479091326377</v>
+        <v>162.8479091326378</v>
       </c>
       <c r="T16" t="n">
-        <v>192.627833077365</v>
+        <v>192.6278330773651</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2907220068087</v>
+        <v>259.2907220068088</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2165271250238</v>
+        <v>225.2165271250239</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6018821377868</v>
+        <v>259.6018821377869</v>
       </c>
       <c r="X16" t="n">
-        <v>198.788539190233</v>
+        <v>198.7885391902331</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6635371532906</v>
+        <v>191.6635371532907</v>
       </c>
     </row>
     <row r="17">
@@ -1844,22 +1844,22 @@
         <v>308.8375888460839</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3766389536108</v>
+        <v>291.3766389536109</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7867888032862</v>
+        <v>280.7867888032863</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0341172548651</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9797929243147</v>
+        <v>332.9797929243148</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0254728360567</v>
+        <v>337.0254728360568</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7115115699237</v>
+        <v>220.7115115699238</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29150897077913</v>
+        <v>35.29150897077918</v>
       </c>
       <c r="T17" t="n">
         <v>130.0217173222235</v>
@@ -1901,13 +1901,13 @@
         <v>177.0989191415053</v>
       </c>
       <c r="V17" t="n">
-        <v>216.6523097638954</v>
+        <v>253.8560056527382</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3447159000163</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>270.830421366022</v>
       </c>
       <c r="Y17" t="n">
         <v>312.3416858386569</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>105.9357273645406</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35056828123112</v>
+        <v>93.35056828123118</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71922020081564</v>
+        <v>137.1344281826208</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53770982917246</v>
+        <v>72.53770982917251</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52479520553453</v>
+        <v>71.52479520553459</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12955544163151</v>
+        <v>92.12955544163157</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85876209692407</v>
+        <v>70.85876209692412</v>
       </c>
       <c r="I19" t="n">
-        <v>22.4561675924414</v>
+        <v>22.45616759244144</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03589985265063</v>
+        <v>15.03589985265067</v>
       </c>
       <c r="S19" t="n">
         <v>115.8727725140452</v>
@@ -2056,7 +2056,7 @@
         <v>145.6526964587725</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3155853882161</v>
+        <v>212.3155853882162</v>
       </c>
       <c r="V19" t="n">
         <v>178.2413905064313</v>
@@ -2065,7 +2065,7 @@
         <v>212.6267455191943</v>
       </c>
       <c r="X19" t="n">
-        <v>214.2286105534464</v>
+        <v>151.8134025716405</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6884005346981</v>
@@ -2081,19 +2081,19 @@
         <v>308.8375888460839</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3766389536108</v>
+        <v>291.3766389536109</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7867888032862</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>287.3372593436067</v>
+        <v>308.0341172548651</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9797929243147</v>
+        <v>332.9797929243148</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0254728360567</v>
+        <v>337.0254728360568</v>
       </c>
       <c r="H20" t="n">
         <v>220.7115115699238</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29150897077913</v>
+        <v>35.29150897077918</v>
       </c>
       <c r="T20" t="n">
         <v>130.0217173222235</v>
@@ -2141,13 +2141,13 @@
         <v>253.8560056527382</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3447159000163</v>
+        <v>223.0929609533873</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8348478610723</v>
+        <v>295.8348478610724</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>312.3416858386569</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9357273645406</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35056828123112</v>
+        <v>93.35056828123118</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71922020081564</v>
+        <v>74.7192202008157</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53770982917246</v>
+        <v>72.53770982917251</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52479520553453</v>
+        <v>71.52479520553459</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12955544163151</v>
+        <v>92.12955544163157</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85876209692407</v>
+        <v>70.85876209692412</v>
       </c>
       <c r="I22" t="n">
-        <v>22.4561675924414</v>
+        <v>22.45616759244144</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03589985265063</v>
+        <v>15.03589985265067</v>
       </c>
       <c r="S22" t="n">
-        <v>178.2879804958512</v>
+        <v>115.8727725140452</v>
       </c>
       <c r="T22" t="n">
         <v>145.6526964587725</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3155853882161</v>
+        <v>212.3155853882162</v>
       </c>
       <c r="V22" t="n">
         <v>178.2413905064313</v>
@@ -2302,10 +2302,10 @@
         <v>212.6267455191943</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8134025716404</v>
+        <v>151.8134025716405</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6884005346981</v>
+        <v>207.1036085165032</v>
       </c>
     </row>
     <row r="23">
@@ -2318,19 +2318,19 @@
         <v>308.8375888460839</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3766389536108</v>
+        <v>291.3766389536109</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7867888032862</v>
+        <v>280.7867888032863</v>
       </c>
       <c r="E23" t="n">
         <v>308.0341172548651</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9797929243147</v>
+        <v>332.9797929243148</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0254728360567</v>
+        <v>337.0254728360568</v>
       </c>
       <c r="H23" t="n">
         <v>220.7115115699238</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29150897077913</v>
+        <v>35.29150897077918</v>
       </c>
       <c r="T23" t="n">
         <v>130.0217173222235</v>
@@ -2378,10 +2378,10 @@
         <v>253.8560056527382</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3447159000163</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8348478610723</v>
+        <v>295.8348478610724</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3416858386569</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9357273645406</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35056828123112</v>
+        <v>93.35056828123118</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71922020081564</v>
+        <v>74.7192202008157</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53770982917246</v>
+        <v>72.53770982917251</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52479520553453</v>
+        <v>71.52479520553459</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12955544163151</v>
+        <v>92.12955544163157</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85876209692407</v>
+        <v>70.85876209692412</v>
       </c>
       <c r="I25" t="n">
-        <v>22.4561675924414</v>
+        <v>22.45616759244144</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03589985265063</v>
+        <v>15.03589985265067</v>
       </c>
       <c r="S25" t="n">
         <v>115.8727725140452</v>
@@ -2530,16 +2530,16 @@
         <v>145.6526964587725</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3155853882161</v>
+        <v>212.3155853882162</v>
       </c>
       <c r="V25" t="n">
         <v>178.2413905064313</v>
       </c>
       <c r="W25" t="n">
-        <v>275.0419535010001</v>
+        <v>212.6267455191943</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8134025716404</v>
+        <v>214.2286105534456</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6884005346981</v>
@@ -2555,19 +2555,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2776,7 +2776,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
         <v>171.6095167335022</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3041,7 +3041,7 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348624</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
         <v>172.5738126575766</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3442,7 +3442,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3679,7 +3679,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
         <v>172.5738126575766</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1813.046641740801</v>
+        <v>1771.023253891606</v>
       </c>
       <c r="C11" t="n">
-        <v>1813.046641740801</v>
+        <v>1429.253783616653</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.973989799509</v>
+        <v>1098.181131675361</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.378783866724</v>
+        <v>739.585925742575</v>
       </c>
       <c r="F11" t="n">
         <v>739.585925742575</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7065222530301</v>
+        <v>351.7065222530302</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31596852725598</v>
+        <v>81.31596852725616</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.508199801724</v>
+        <v>3242.508199801726</v>
       </c>
       <c r="T11" t="n">
-        <v>3242.508199801724</v>
+        <v>3242.508199801726</v>
       </c>
       <c r="U11" t="n">
-        <v>3207.248040650094</v>
+        <v>3016.170769741021</v>
       </c>
       <c r="V11" t="n">
-        <v>3207.248040650094</v>
+        <v>2712.300929062909</v>
       </c>
       <c r="W11" t="n">
-        <v>2881.672432045439</v>
+        <v>2386.725320458253</v>
       </c>
       <c r="X11" t="n">
-        <v>2535.399720449817</v>
+        <v>2386.725320458253</v>
       </c>
       <c r="Y11" t="n">
-        <v>2172.453435139464</v>
+        <v>2130.430047290269</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
@@ -5142,16 +5142,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199866</v>
@@ -5163,7 +5163,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>810.3134105851821</v>
+        <v>759.5192175211483</v>
       </c>
       <c r="C13" t="n">
-        <v>668.5702743227338</v>
+        <v>759.5192175211483</v>
       </c>
       <c r="D13" t="n">
-        <v>545.6466815758567</v>
+        <v>636.5956247742713</v>
       </c>
       <c r="E13" t="n">
-        <v>424.9266346589222</v>
+        <v>515.8755778573369</v>
       </c>
       <c r="F13" t="n">
-        <v>305.2297338264706</v>
+        <v>396.1786770248852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.7199438666482</v>
+        <v>255.6688870650629</v>
       </c>
       <c r="H13" t="n">
         <v>136.6447469483794</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>138.286653915935</v>
@@ -5203,7 +5203,7 @@
         <v>368.9257419016275</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1374453869396</v>
+        <v>712.1374453869397</v>
       </c>
       <c r="M13" t="n">
         <v>1082.946396023305</v>
@@ -5224,25 +5224,25 @@
         <v>2077.872377806008</v>
       </c>
       <c r="S13" t="n">
-        <v>2077.872377806008</v>
+        <v>1913.379540298293</v>
       </c>
       <c r="T13" t="n">
-        <v>1883.298809040993</v>
+        <v>1718.805971533277</v>
       </c>
       <c r="U13" t="n">
-        <v>1621.388988832095</v>
+        <v>1456.89615132438</v>
       </c>
       <c r="V13" t="n">
-        <v>1621.388988832095</v>
+        <v>1376.99526328999</v>
       </c>
       <c r="W13" t="n">
-        <v>1359.164865460593</v>
+        <v>1114.771139918488</v>
       </c>
       <c r="X13" t="n">
-        <v>1158.368361228034</v>
+        <v>913.9746356859293</v>
       </c>
       <c r="Y13" t="n">
-        <v>964.7688287499631</v>
+        <v>913.9746356859293</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1823.743460074462</v>
+        <v>1439.950601950314</v>
       </c>
       <c r="C14" t="n">
-        <v>1481.973989799509</v>
+        <v>1098.181131675361</v>
       </c>
       <c r="D14" t="n">
-        <v>1481.973989799509</v>
+        <v>1098.181131675361</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.378783866724</v>
+        <v>739.5859257425749</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5859257425748</v>
+        <v>739.5859257425749</v>
       </c>
       <c r="G14" t="n">
-        <v>351.70652225303</v>
+        <v>351.7065222530301</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31596852725596</v>
+        <v>81.31596852725599</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912096</v>
@@ -5282,22 +5282,22 @@
         <v>589.2106210810571</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5306,22 +5306,22 @@
         <v>3242.508199801725</v>
       </c>
       <c r="T14" t="n">
-        <v>3217.944858983755</v>
+        <v>3063.723498851406</v>
       </c>
       <c r="U14" t="n">
-        <v>3217.944858983755</v>
+        <v>2837.386068790701</v>
       </c>
       <c r="V14" t="n">
-        <v>3217.944858983755</v>
+        <v>2533.516228112589</v>
       </c>
       <c r="W14" t="n">
-        <v>2892.3692503791</v>
+        <v>2207.940619507934</v>
       </c>
       <c r="X14" t="n">
-        <v>2546.096538783479</v>
+        <v>1861.667907912313</v>
       </c>
       <c r="Y14" t="n">
-        <v>2183.150253473125</v>
+        <v>1799.357395348977</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5352,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>418.3291315370395</v>
+        <v>418.3291315370377</v>
       </c>
       <c r="C16" t="n">
-        <v>418.3291315370395</v>
+        <v>418.3291315370377</v>
       </c>
       <c r="D16" t="n">
-        <v>326.7188072244573</v>
+        <v>295.4055387901607</v>
       </c>
       <c r="E16" t="n">
-        <v>326.7188072244573</v>
+        <v>277.1545369082017</v>
       </c>
       <c r="F16" t="n">
-        <v>207.0219063920057</v>
+        <v>277.1545369082017</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>136.6447469483794</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>136.6447469483794</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>138.2866539159349</v>
@@ -5467,19 +5467,19 @@
         <v>1718.805971533277</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.89615132438</v>
+        <v>1456.896151324379</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.404709783952</v>
+        <v>1229.404709783951</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1805864124499</v>
+        <v>967.1805864124492</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3840821798913</v>
+        <v>766.3840821798905</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.78454970182</v>
+        <v>572.7845497018191</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.314462232242</v>
+        <v>1544.16888924753</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.994624905362</v>
+        <v>1249.84905192065</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.371605912144</v>
+        <v>966.2260329274313</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2260329274314</v>
+        <v>966.2260329274313</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8828077513559</v>
+        <v>629.8828077513558</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4530372098842</v>
+        <v>289.4530372098843</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5549,16 +5549,16 @@
         <v>2979.734967634921</v>
       </c>
       <c r="V17" t="n">
-        <v>2760.894250701693</v>
+        <v>2723.314759904883</v>
       </c>
       <c r="W17" t="n">
-        <v>2482.768275045111</v>
+        <v>2445.1887842483</v>
       </c>
       <c r="X17" t="n">
-        <v>2482.768275045111</v>
+        <v>2171.622702060399</v>
       </c>
       <c r="Y17" t="n">
-        <v>2167.271622682832</v>
+        <v>1856.126049698119</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,10 +5610,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1149231470831</v>
+        <v>632.1605877751695</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8214198327083</v>
+        <v>537.8670844607946</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3474600339046</v>
+        <v>399.3474600339049</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0770460650435</v>
+        <v>326.0770460650438</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8297781806652</v>
+        <v>253.8297781806654</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7696211689162</v>
+        <v>160.7696211689163</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19511400030603</v>
+        <v>89.19511400030609</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,10 +5692,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.106770459552</v>
+        <v>1912.106770459553</v>
       </c>
       <c r="S19" t="n">
         <v>1795.063565899911</v>
@@ -5707,16 +5707,16 @@
         <v>1433.479442822144</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.43763422979</v>
+        <v>1253.437634229789</v>
       </c>
       <c r="W19" t="n">
         <v>1038.663143806361</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2706078937888</v>
+        <v>885.3162725218754</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1207083637908</v>
+        <v>739.1663729918772</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1834.408545150162</v>
+        <v>1571.691443239023</v>
       </c>
       <c r="C20" t="n">
-        <v>1540.088707823282</v>
+        <v>1277.371605912144</v>
       </c>
       <c r="D20" t="n">
-        <v>1256.465688830064</v>
+        <v>1277.371605912144</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2260329274311</v>
+        <v>966.2260329274313</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8828077513556</v>
+        <v>629.8828077513558</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4530372098842</v>
+        <v>289.4530372098843</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5768,7 +5768,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5783,19 +5783,19 @@
         <v>3158.622764747553</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.73496763492</v>
+        <v>2979.734967634921</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.314759904882</v>
+        <v>2723.314759904883</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.188784248299</v>
+        <v>2497.968334699441</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.365705600751</v>
+        <v>2199.145256051893</v>
       </c>
       <c r="Y20" t="n">
-        <v>2146.365705600751</v>
+        <v>1883.648603689613</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5826,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1149231470831</v>
+        <v>569.1149231470836</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8214198327083</v>
+        <v>474.8214198327087</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3474600339046</v>
+        <v>399.3474600339049</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0770460650435</v>
+        <v>326.0770460650438</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8297781806652</v>
+        <v>253.8297781806654</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7696211689162</v>
+        <v>160.7696211689163</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19511400030603</v>
+        <v>89.19511400030609</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.106770459552</v>
+        <v>1912.106770459553</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.017901271824</v>
+        <v>1795.063565899911</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.893965454882</v>
+        <v>1647.939630082969</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.433778194058</v>
+        <v>1433.479442822144</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.391969601703</v>
+        <v>1253.437634229789</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6174791782742</v>
+        <v>1038.663143806361</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2706078937888</v>
+        <v>885.3162725218754</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1207083637908</v>
+        <v>676.1207083637913</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.17982079233</v>
+        <v>1862.179820792331</v>
       </c>
       <c r="C23" t="n">
         <v>1567.859983465451</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.236964472232</v>
+        <v>1284.236964472233</v>
       </c>
       <c r="E23" t="n">
-        <v>973.09139148752</v>
+        <v>973.0913914875205</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7481663114445</v>
+        <v>636.7481663114449</v>
       </c>
       <c r="G23" t="n">
         <v>296.3183957699732</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37747499227238</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37747499227238</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="J23" t="n">
         <v>262.2566059512978</v>
       </c>
       <c r="K23" t="n">
-        <v>613.8978279957366</v>
+        <v>596.0759796411444</v>
       </c>
       <c r="L23" t="n">
-        <v>1064.932041244145</v>
+        <v>1047.110192889553</v>
       </c>
       <c r="M23" t="n">
-        <v>1598.46394591607</v>
+        <v>1917.044667005838</v>
       </c>
       <c r="N23" t="n">
-        <v>2145.242762974852</v>
+        <v>2463.82348406462</v>
       </c>
       <c r="O23" t="n">
-        <v>2648.215233854189</v>
+        <v>2966.795954943957</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.570321301134</v>
+        <v>3361.570321301135</v>
       </c>
       <c r="Q23" t="n">
         <v>3609.856683056817</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.873749613619</v>
+        <v>3668.87374961362</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.225760754246</v>
+        <v>3633.225760754247</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.890692752</v>
+        <v>3501.890692752001</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.002895639368</v>
+        <v>3323.002895639369</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.582687909329</v>
+        <v>3066.582687909331</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.456712252747</v>
+        <v>2788.456712252748</v>
       </c>
       <c r="X23" t="n">
         <v>2489.6336336052</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.13698124292</v>
+        <v>2174.136981242921</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>92.38476659073444</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37747499227238</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0547444828907</v>
+        <v>167.0547444828897</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3189434632378</v>
+        <v>405.3189434632369</v>
       </c>
       <c r="L24" t="n">
-        <v>772.017103775903</v>
+        <v>772.0171037759023</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.293428998219</v>
+        <v>1219.293428998218</v>
       </c>
       <c r="N24" t="n">
         <v>1692.816472552673</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.777751970728</v>
+        <v>2103.777751970727</v>
       </c>
       <c r="P24" t="n">
         <v>2414.27734344683</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9802817071721</v>
+        <v>575.9802817071726</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6867783927973</v>
+        <v>481.6867783927977</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2128185939936</v>
+        <v>406.2128185939939</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9424046251326</v>
+        <v>332.9424046251328</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6951367407542</v>
+        <v>260.6951367407544</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6349797290052</v>
+        <v>167.6349797290053</v>
       </c>
       <c r="H25" t="n">
-        <v>96.060472560395</v>
+        <v>96.06047256039506</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37747499227238</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5001074392079</v>
+        <v>118.500107439208</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4872903880843</v>
+        <v>322.4872903880844</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0470888365803</v>
+        <v>639.0470888365805</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2041344361293</v>
+        <v>983.2041344361296</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612511141994</v>
       </c>
       <c r="O25" t="n">
-        <v>1623.942110062407</v>
+        <v>1623.942110062408</v>
       </c>
       <c r="P25" t="n">
-        <v>1856.549610496066</v>
+        <v>1856.549610496067</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.159906648581</v>
+        <v>1934.159906648582</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.972129019641</v>
+        <v>1918.972129019642</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.928924459999</v>
+        <v>1801.92892446</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.804988643057</v>
+        <v>1654.804988643058</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.344801382233</v>
+        <v>1440.344801382234</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.302992789878</v>
+        <v>1260.302992789879</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4828377383631</v>
+        <v>1045.52850236645</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1359664538778</v>
+        <v>829.1359664538785</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9860669238798</v>
+        <v>682.9860669238803</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6224,22 +6224,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760675</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659138</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814322</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486246</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.596005545028</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424365</v>
+        <v>2761.436232647468</v>
       </c>
       <c r="P26" t="n">
         <v>3474.791320094414</v>
@@ -6248,7 +6248,7 @@
         <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309626</v>
@@ -6303,22 +6303,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873081</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676551</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803203</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
-        <v>1227.062870902636</v>
+        <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
         <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
-        <v>2111.547193875145</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
         <v>2422.046785351247</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,13 +6382,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960316</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6412,13 +6412,13 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486247</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.596005545029</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424366</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3518.923563871311</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603404</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643391</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
         <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467804</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6698,28 +6698,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>1092.155029011367</v>
+        <v>907.4660419013969</v>
       </c>
       <c r="L32" t="n">
-        <v>1543.189242259775</v>
+        <v>1771.984857554752</v>
       </c>
       <c r="M32" t="n">
-        <v>2076.7211469317</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N32" t="n">
-        <v>2623.499963990482</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O32" t="n">
-        <v>3126.472434869819</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.983160847722</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603404</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834459</v>
@@ -6737,13 +6737,13 @@
         <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960316</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K34" t="n">
         <v>423.2675027973145</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6877,7 +6877,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
         <v>2271.591606277852</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>771.251070565914</v>
+        <v>632.2149454738376</v>
       </c>
       <c r="L35" t="n">
-        <v>1496.733761127194</v>
+        <v>1496.733761127192</v>
       </c>
       <c r="M35" t="n">
-        <v>2030.265665799119</v>
+        <v>2030.265665799117</v>
       </c>
       <c r="N35" t="n">
-        <v>2577.044482857901</v>
+        <v>2577.044482857899</v>
       </c>
       <c r="O35" t="n">
-        <v>3080.016953737238</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094415</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7011,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E37" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643398</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
         <v>172.7749345960314</v>
@@ -7099,7 +7099,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7117,10 +7117,10 @@
         <v>2313.972430572251</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
         <v>1953.038372570351</v>
@@ -7129,16 +7129,16 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
         <v>1262.182746297367</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E38" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
@@ -7172,28 +7172,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>878.8992091819725</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L38" t="n">
-        <v>1329.933422430381</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>1863.465327102306</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N38" t="n">
-        <v>2410.244144161088</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O38" t="n">
-        <v>3290.208794490542</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P38" t="n">
-        <v>3684.98316084772</v>
+        <v>3518.923563871313</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603402</v>
+        <v>3977.401766380301</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834458</v>
@@ -7251,13 +7251,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7336,7 +7336,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
         <v>1711.594658697161</v>
@@ -7397,7 +7397,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7409,49 +7409,49 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>771.251070565914</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L41" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M41" t="n">
-        <v>2030.265665799118</v>
+        <v>1986.936041136908</v>
       </c>
       <c r="N41" t="n">
-        <v>2577.0444828579</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O41" t="n">
-        <v>3080.016953737237</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805548</v>
@@ -7488,25 +7488,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q42" t="n">
         <v>2579.688342997847</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697993</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899657</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257032</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913834</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415463</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7567,13 +7567,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
@@ -7582,37 +7582,37 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347422</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519657</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689498</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
         <v>1711.59465869716</v>
@@ -7634,7 +7634,7 @@
         <v>1062.439973388312</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467782</v>
+        <v>698.9037015467783</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
@@ -7646,22 +7646,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455608</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L44" t="n">
-        <v>1468.364237198915</v>
+        <v>1453.404136464983</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.89614187084</v>
+        <v>1986.936041136908</v>
       </c>
       <c r="N44" t="n">
-        <v>2548.674958929621</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O44" t="n">
-        <v>3355.268050164795</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P44" t="n">
         <v>3750.042416521973</v>
@@ -7685,13 +7685,13 @@
         <v>3346.282596468333</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q45" t="n">
         <v>2579.688342997847</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D46" t="n">
         <v>549.9474938257041</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F46" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
@@ -7804,16 +7804,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>164.4450187886096</v>
+        <v>164.445018788609</v>
       </c>
       <c r="K8" t="n">
-        <v>195.2094266592915</v>
+        <v>195.2094266592907</v>
       </c>
       <c r="L8" t="n">
-        <v>204.90004844192</v>
+        <v>204.9000484419191</v>
       </c>
       <c r="M8" t="n">
-        <v>196.0014531526788</v>
+        <v>196.0014531526778</v>
       </c>
       <c r="N8" t="n">
-        <v>194.512549074028</v>
+        <v>194.5125490740269</v>
       </c>
       <c r="O8" t="n">
-        <v>197.1426452201064</v>
+        <v>197.1426452201054</v>
       </c>
       <c r="P8" t="n">
-        <v>203.1061824561917</v>
+        <v>203.1061824561908</v>
       </c>
       <c r="Q8" t="n">
-        <v>201.1836244567234</v>
+        <v>201.1836244567227</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>116.9502528485208</v>
+        <v>116.9502528485205</v>
       </c>
       <c r="K9" t="n">
-        <v>120.9423422814164</v>
+        <v>120.9423422814159</v>
       </c>
       <c r="L9" t="n">
-        <v>115.8314587981505</v>
+        <v>115.8314587981498</v>
       </c>
       <c r="M9" t="n">
-        <v>115.6174569072889</v>
+        <v>115.6174569072881</v>
       </c>
       <c r="N9" t="n">
-        <v>104.1233201775615</v>
+        <v>104.1233201775606</v>
       </c>
       <c r="O9" t="n">
-        <v>117.696733395145</v>
+        <v>117.6967333951443</v>
       </c>
       <c r="P9" t="n">
-        <v>113.9903546175968</v>
+        <v>113.9903546175962</v>
       </c>
       <c r="Q9" t="n">
-        <v>126.6229640213394</v>
+        <v>126.622964021339</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>121.8405463218794</v>
+        <v>121.840546321879</v>
       </c>
       <c r="M10" t="n">
-        <v>125.1725778274372</v>
+        <v>125.1725778274368</v>
       </c>
       <c r="N10" t="n">
-        <v>114.2593588466758</v>
+        <v>114.2593588466754</v>
       </c>
       <c r="O10" t="n">
-        <v>126.0552829419913</v>
+        <v>126.0552829419909</v>
       </c>
       <c r="P10" t="n">
-        <v>127.1165875773786</v>
+        <v>127.1165875773783</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>4.760636329592671e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>18.00186702484086</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>339.8005751963233</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9887,10 +9887,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>124.5185911550049</v>
       </c>
       <c r="P26" t="n">
-        <v>277.2206841544157</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,22 +10118,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>274.8351763665422</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>167.7369666428388</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>306.6874953089251</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>165.3902622431565</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>28.65608477603689</v>
       </c>
       <c r="L35" t="n">
-        <v>277.2206841544157</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>277.8321087236481</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>21.13839585591369</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>277.2206841544149</v>
+        <v>78.40458911672772</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,10 +11297,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>78.40458911672766</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,10 +11309,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>306.6874953089261</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.28796821707176</v>
+        <v>15.28796821707175</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.10714246085647</v>
+        <v>15.10714246085646</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3517755722035</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.9549295429073</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>176.996853940816</v>
       </c>
       <c r="U11" t="n">
-        <v>189.1664981999838</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8311422713308</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8099844796649</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>105.5845020209453</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3257048998237</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>90.03945376643051</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8479091326378</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2165271250239</v>
+        <v>146.1146479709778</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.6635371532907</v>
       </c>
     </row>
     <row r="14">
@@ -23498,13 +23498,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7619254218788</v>
+        <v>327.7619254218789</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.9549295429073</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>152.6791465310253</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0740557600978</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8311422713307</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>297.6294150195467</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23656,22 @@
         <v>140.3257048998237</v>
       </c>
       <c r="D16" t="n">
-        <v>31.00013574995185</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.512846447765</v>
+        <v>101.4443545846257</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.4999318241271</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8338987155166</v>
+        <v>117.8338987155167</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43130421103396</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>308.0341172548651</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23789,13 +23789,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>37.20369588884277</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8348478610723</v>
+        <v>25.0044264950504</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23972,10 +23972,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>280.7867888032863</v>
       </c>
       <c r="E20" t="n">
-        <v>20.69685791125836</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24029,13 +24029,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>52.25175494662906</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3416858386569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>245782.9016151115</v>
+        <v>245782.9016151114</v>
       </c>
       <c r="C2" t="n">
-        <v>245783.2543059492</v>
+        <v>245783.2543059493</v>
       </c>
       <c r="D2" t="n">
-        <v>245787.5724250078</v>
+        <v>245787.5724250077</v>
       </c>
       <c r="E2" t="n">
-        <v>218862.5140238856</v>
+        <v>218862.5140238857</v>
       </c>
       <c r="F2" t="n">
         <v>218862.5140238857</v>
       </c>
       <c r="G2" t="n">
-        <v>238359.5705345373</v>
+        <v>238359.5705345372</v>
       </c>
       <c r="H2" t="n">
-        <v>238359.5705345373</v>
+        <v>238359.5705345372</v>
       </c>
       <c r="I2" t="n">
         <v>246312.5309592851</v>
@@ -26341,13 +26341,13 @@
         <v>246312.5309592848</v>
       </c>
       <c r="L2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="M2" t="n">
         <v>246312.5309592849</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.5309592847</v>
+        <v>246312.5309592846</v>
       </c>
       <c r="O2" t="n">
         <v>246312.5309592849</v>
@@ -26369,10 +26369,10 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>38521.85015936229</v>
+        <v>38521.85015936362</v>
       </c>
       <c r="E3" t="n">
-        <v>1106215.961015504</v>
+        <v>1106215.961015502</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,13 +26384,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.53767071771</v>
+        <v>22820.53767071774</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.34822049024</v>
+        <v>25410.34822049021</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>37580.10929487403</v>
@@ -26421,43 +26421,43 @@
         <v>435241.0409526688</v>
       </c>
       <c r="D4" t="n">
-        <v>422862.857334306</v>
+        <v>422862.8573343055</v>
       </c>
       <c r="E4" t="n">
         <v>38195.3098855474</v>
       </c>
       <c r="F4" t="n">
-        <v>38195.30988554746</v>
+        <v>38195.3098855474</v>
       </c>
       <c r="G4" t="n">
-        <v>75223.10714400184</v>
+        <v>75223.10714400178</v>
       </c>
       <c r="H4" t="n">
-        <v>75223.10714400186</v>
+        <v>75223.10714400181</v>
       </c>
       <c r="I4" t="n">
-        <v>86759.13279157189</v>
+        <v>86759.13279157184</v>
       </c>
       <c r="J4" t="n">
-        <v>82806.76150409851</v>
+        <v>82806.76150409838</v>
       </c>
       <c r="K4" t="n">
-        <v>82806.76150409848</v>
+        <v>82806.76150409839</v>
       </c>
       <c r="L4" t="n">
         <v>82806.76150409842</v>
       </c>
       <c r="M4" t="n">
-        <v>82806.76150409845</v>
+        <v>82806.76150409837</v>
       </c>
       <c r="N4" t="n">
-        <v>82806.76150409844</v>
+        <v>82806.76150409838</v>
       </c>
       <c r="O4" t="n">
-        <v>82806.76150409841</v>
+        <v>82806.76150409839</v>
       </c>
       <c r="P4" t="n">
-        <v>82806.76150409844</v>
+        <v>82806.76150409839</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33707.69021107268</v>
       </c>
       <c r="D5" t="n">
-        <v>34688.26308058917</v>
+        <v>34688.26308058921</v>
       </c>
       <c r="E5" t="n">
         <v>76569.57187911056</v>
@@ -26488,28 +26488,28 @@
         <v>80518.72463949902</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.39714516663</v>
+        <v>85736.39714516664</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-224118.5781041367</v>
+        <v>-224122.9916820049</v>
       </c>
       <c r="C6" t="n">
-        <v>-226510.9037561045</v>
+        <v>-226515.3143948822</v>
       </c>
       <c r="D6" t="n">
-        <v>-250285.3981492496</v>
+        <v>-250289.772803703</v>
       </c>
       <c r="E6" t="n">
-        <v>-1002118.328756276</v>
+        <v>-1002347.078897403</v>
       </c>
       <c r="F6" t="n">
-        <v>104097.6322592278</v>
+        <v>103868.8821180994</v>
       </c>
       <c r="G6" t="n">
-        <v>45037.62945616235</v>
+        <v>44971.35478595614</v>
       </c>
       <c r="H6" t="n">
-        <v>82617.73875103648</v>
+        <v>82551.4640808301</v>
       </c>
       <c r="I6" t="n">
-        <v>50996.46335182888</v>
+        <v>50996.46335182889</v>
       </c>
       <c r="J6" t="n">
-        <v>48717.47955988998</v>
+        <v>48717.47955989011</v>
       </c>
       <c r="K6" t="n">
-        <v>74127.8277803801</v>
+        <v>74127.82778038026</v>
       </c>
       <c r="L6" t="n">
-        <v>36547.71848550647</v>
+        <v>36547.71848550622</v>
       </c>
       <c r="M6" t="n">
-        <v>-133060.7405116926</v>
+        <v>-133060.7405116925</v>
       </c>
       <c r="N6" t="n">
-        <v>74127.82778038016</v>
+        <v>74127.82778038015</v>
       </c>
       <c r="O6" t="n">
-        <v>74127.82778038039</v>
+        <v>74127.82778038035</v>
       </c>
       <c r="P6" t="n">
-        <v>74127.82778038016</v>
+        <v>74127.82778038023</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>26.92111619880411</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="O2" t="n">
-        <v>46.97513661859254</v>
-      </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>48.65426975179706</v>
+        <v>48.65426975179859</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,31 +26796,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2184374034048</v>
+        <v>917.218437403405</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
         <v>1014.336461208614</v>
@@ -26917,7 +26917,7 @@
         <v>26.92111619880411</v>
       </c>
       <c r="F2" t="n">
-        <v>5.665076810060058e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>46.97513661859255</v>
@@ -26963,10 +26963,10 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>44.98040685855474</v>
+        <v>44.98040685855628</v>
       </c>
       <c r="E3" t="n">
-        <v>1041.122430841501</v>
+        <v>1041.1224308415</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,13 +27030,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.81698200111202</v>
+        <v>85.81698200111214</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11802380520953</v>
+        <v>97.11802380520942</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>26.92111619880411</v>
       </c>
       <c r="K2" t="n">
-        <v>5.665076810060058e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859255</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.4716642661367</v>
+        <v>337.4716642661365</v>
       </c>
       <c r="I8" t="n">
-        <v>202.9352112403309</v>
+        <v>202.9352112403307</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>137.5825701128228</v>
+        <v>137.5825701128224</v>
       </c>
       <c r="S8" t="n">
-        <v>204.5629472868722</v>
+        <v>204.562947286872</v>
       </c>
       <c r="T8" t="n">
-        <v>222.2396322140269</v>
+        <v>222.2396322140268</v>
       </c>
       <c r="U8" t="n">
         <v>251.3300053034942</v>
@@ -27950,7 +27950,7 @@
         <v>111.2247206327846</v>
       </c>
       <c r="I9" t="n">
-        <v>85.79346287451312</v>
+        <v>85.79346287451301</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.66019412805409</v>
+        <v>93.66019412805387</v>
       </c>
       <c r="S9" t="n">
-        <v>169.7392953264901</v>
+        <v>169.73929532649</v>
       </c>
       <c r="T9" t="n">
         <v>199.7429053561244</v>
@@ -28029,13 +28029,13 @@
         <v>161.4471089694517</v>
       </c>
       <c r="I10" t="n">
-        <v>152.8119778069477</v>
+        <v>152.8119778069476</v>
       </c>
       <c r="J10" t="n">
-        <v>87.15615952880842</v>
+        <v>87.15615952880822</v>
       </c>
       <c r="K10" t="n">
-        <v>12.0760235073916</v>
+        <v>12.07602350739128</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.81524851917302</v>
+        <v>78.8152485191728</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3484074723762</v>
+        <v>173.3484074723761</v>
       </c>
       <c r="S10" t="n">
-        <v>222.4875777891986</v>
+        <v>222.4875777891985</v>
       </c>
       <c r="T10" t="n">
         <v>227.5707122678988</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880411</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89625281739671</v>
+        <v>11.4810448355916</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="X19" t="n">
-        <v>11.48104483559072</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="S22" t="n">
-        <v>11.48104483559069</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89625281739671</v>
+        <v>11.4810448355916</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="W25" t="n">
-        <v>11.48104483559092</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89625281739671</v>
+        <v>11.48104483559152</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739666</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29530,7 +29530,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859108</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859223</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
   </sheetData>
@@ -31300,7 +31300,7 @@
         <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>2.48846056906043</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
         <v>2.123843523123063</v>
@@ -31309,7 +31309,7 @@
         <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>0.9277519194678707</v>
       </c>
       <c r="S5" t="n">
         <v>0.3365553796171231</v>
@@ -31434,10 +31434,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0.006624998659945164</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>0.05890226081296705</v>
       </c>
       <c r="I7" t="n">
         <v>0.1992317778827147</v>
@@ -31449,7 +31449,7 @@
         <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>0.9849566189522113</v>
       </c>
       <c r="M7" t="n">
         <v>1.038498653576677</v>
@@ -31467,13 +31467,13 @@
         <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>0.2978840306553525</v>
       </c>
       <c r="S7" t="n">
         <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>0.02830681245612933</v>
       </c>
       <c r="U7" t="n">
         <v>0.0003613635632697367</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.195595054278581</v>
+        <v>0.1955950542785872</v>
       </c>
       <c r="H8" t="n">
-        <v>2.003137849630518</v>
+        <v>2.003137849630581</v>
       </c>
       <c r="I8" t="n">
-        <v>7.540678330075001</v>
+        <v>7.540678330075239</v>
       </c>
       <c r="J8" t="n">
-        <v>16.60088573807673</v>
+        <v>16.60088573807725</v>
       </c>
       <c r="K8" t="n">
-        <v>24.88042438568907</v>
+        <v>24.88042438568985</v>
       </c>
       <c r="L8" t="n">
-        <v>30.8663665280672</v>
+        <v>30.86636652806817</v>
       </c>
       <c r="M8" t="n">
-        <v>34.34478007459391</v>
+        <v>34.34478007459499</v>
       </c>
       <c r="N8" t="n">
-        <v>34.90051452256293</v>
+        <v>34.90051452256403</v>
       </c>
       <c r="O8" t="n">
-        <v>32.95556620158029</v>
+        <v>32.95556620158133</v>
       </c>
       <c r="P8" t="n">
-        <v>28.12681329907782</v>
+        <v>28.12681329907871</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.12206541772613</v>
+        <v>21.12206541772679</v>
       </c>
       <c r="R8" t="n">
-        <v>12.28654782832692</v>
+        <v>12.28654782832731</v>
       </c>
       <c r="S8" t="n">
-        <v>4.457122299373169</v>
+        <v>4.457122299373309</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8562173501044887</v>
+        <v>0.8562173501045157</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01564760434228648</v>
+        <v>0.01564760434228697</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1046525802208465</v>
+        <v>0.1046525802208498</v>
       </c>
       <c r="H9" t="n">
-        <v>1.01072360371186</v>
+        <v>1.010723603711892</v>
       </c>
       <c r="I9" t="n">
-        <v>3.603169976901953</v>
+        <v>3.603169976902066</v>
       </c>
       <c r="J9" t="n">
-        <v>9.887373818145855</v>
+        <v>9.887373818146168</v>
       </c>
       <c r="K9" t="n">
-        <v>16.89909669294257</v>
+        <v>16.8990966929431</v>
       </c>
       <c r="L9" t="n">
-        <v>22.72292098172371</v>
+        <v>22.72292098172443</v>
       </c>
       <c r="M9" t="n">
-        <v>26.51657701472939</v>
+        <v>26.51657701473023</v>
       </c>
       <c r="N9" t="n">
-        <v>27.21839190577183</v>
+        <v>27.21839190577269</v>
       </c>
       <c r="O9" t="n">
-        <v>24.89951104929939</v>
+        <v>24.89951104930017</v>
       </c>
       <c r="P9" t="n">
-        <v>19.9840527967334</v>
+        <v>19.98405279673403</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.35881006468209</v>
+        <v>13.35881006468251</v>
       </c>
       <c r="R9" t="n">
-        <v>6.497640024589051</v>
+        <v>6.497640024589256</v>
       </c>
       <c r="S9" t="n">
-        <v>1.94387577734774</v>
+        <v>1.943875777347801</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4218233386971838</v>
+        <v>0.4218233386971971</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006885038172424115</v>
+        <v>0.006885038172424332</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08773720774914223</v>
+        <v>0.08773720774914499</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7800635379878288</v>
+        <v>0.7800635379878533</v>
       </c>
       <c r="I10" t="n">
-        <v>2.638497120310569</v>
+        <v>2.638497120310652</v>
       </c>
       <c r="J10" t="n">
-        <v>6.203020587864355</v>
+        <v>6.203020587864551</v>
       </c>
       <c r="K10" t="n">
-        <v>10.19346831849125</v>
+        <v>10.19346831849157</v>
       </c>
       <c r="L10" t="n">
-        <v>13.04412995935884</v>
+        <v>13.04412995935925</v>
       </c>
       <c r="M10" t="n">
-        <v>13.75320612016781</v>
+        <v>13.75320612016825</v>
       </c>
       <c r="N10" t="n">
-        <v>13.42618561855738</v>
+        <v>13.42618561855781</v>
       </c>
       <c r="O10" t="n">
-        <v>12.40125550985149</v>
+        <v>12.40125550985188</v>
       </c>
       <c r="P10" t="n">
-        <v>10.61141647176898</v>
+        <v>10.61141647176931</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.346794732521356</v>
+        <v>7.346794732521587</v>
       </c>
       <c r="R10" t="n">
-        <v>3.944983904793249</v>
+        <v>3.944983904793373</v>
       </c>
       <c r="S10" t="n">
-        <v>1.529020247773687</v>
+        <v>1.529020247773735</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3748771603826985</v>
+        <v>0.3748771603827104</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004785665877225945</v>
+        <v>0.004785665877226096</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026448</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026455</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987485</v>
@@ -33050,10 +33050,10 @@
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597743</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49953281187035</v>
+        <v>72.49953281187032</v>
       </c>
       <c r="K16" t="n">
         <v>232.9687757431237</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222572</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>355.1931535802412</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>878.72169102655</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597807</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407862</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882189</v>
+        <v>632.571592043224</v>
       </c>
       <c r="P26" t="n">
-        <v>675.9826703737872</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.109295463624</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152071</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597878</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.233896612727</v>
@@ -36756,19 +36756,19 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>782.8881772547613</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>418.5312714465582</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597773</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36996,16 +36996,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>643.8787818643256</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>564.1522484625282</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37233,16 +37233,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>365.8473713314374</v>
       </c>
       <c r="L35" t="n">
-        <v>732.8107985467476</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597773</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37470,16 +37470,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>615.0233952790485</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>80.75159439813847</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597776</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165885</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>816.1417999846415</v>
+        <v>617.3257049469545</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37944,16 +37944,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427824</v>
+        <v>533.9947035090598</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>814.7404961971451</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165885</v>
+        <v>92.55355323165846</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
